--- a/Risultati SA/prova/Bozza modello netlogo 3.15 Case study-spreadsheet.xlsx
+++ b/Risultati SA/prova/Bozza modello netlogo 3.15 Case study-spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuc-my.sharepoint.com/personal/be22_filippini_stud_liuc_it/Documents/TESI/Tesi Beatrice Filippini/Modello NetLogo/rebound_ABM/Risultati SA/prova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{879462EA-69B6-4150-8A99-F79176011721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6F110ED-D546-41AB-8871-DC4B14FD4882}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{879462EA-69B6-4150-8A99-F79176011721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B55C26E-2237-4D10-8D90-47D7CE637721}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{26C5E562-0D9F-42C0-B07E-14E0BBC37CC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26C5E562-0D9F-42C0-B07E-14E0BBC37CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -593,13 +593,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -853,7 +852,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7C68549-6FC7-487D-89F5-0E3290C2ED09}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7C68549-6FC7-487D-89F5-0E3290C2ED09}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -924,7 +923,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC04D2BB-B2FF-41BA-9316-3E66FBD0BABE}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC04D2BB-B2FF-41BA-9316-3E66FBD0BABE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -1335,7 +1334,7 @@
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>0.45099819523670315</v>
       </c>
     </row>
@@ -1343,7 +1342,7 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>17.386274509803862</v>
       </c>
     </row>
@@ -1351,7 +1350,7 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>8.9186363525202808</v>
       </c>
     </row>
@@ -1364,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A41B50-E020-4179-AC65-37C8CDF4897D}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1884,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696C26E2-3145-43F6-8847-B4955AA1F535}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
